--- a/kafka学习笔记图.xlsx
+++ b/kafka学习笔记图.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="880" yWindow="600" windowWidth="32180" windowHeight="18940" xr2:uid="{6AED9D66-09E5-C94A-9F02-31579C849422}"/>
+    <workbookView xWindow="780" yWindow="540" windowWidth="32180" windowHeight="18940" activeTab="1" xr2:uid="{6AED9D66-09E5-C94A-9F02-31579C849422}"/>
   </bookViews>
   <sheets>
     <sheet name="消费者分配分区" sheetId="1" r:id="rId1"/>
+    <sheet name="提交offset" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -97,8 +98,8 @@
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>711200</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -114,7 +115,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2108200" y="444500"/>
-          <a:ext cx="15938500" cy="7823200"/>
+          <a:ext cx="15938500" cy="8255000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -395,7 +396,7 @@
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -414,7 +415,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6705600" y="5575300"/>
-          <a:ext cx="990600" cy="317500"/>
+          <a:ext cx="1816100" cy="317500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -449,9 +450,18 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
+            <a:rPr lang="zh-Hans" altLang="en-US" sz="1400"/>
+            <a:t>发</a:t>
+          </a:r>
+          <a:r>
             <a:rPr lang="en-US" altLang="zh-Hans" sz="1400"/>
             <a:t>JoinGroup</a:t>
           </a:r>
+          <a:r>
+            <a:rPr lang="zh-Hans" altLang="en-US" sz="1400"/>
+            <a:t>给协调器</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-Hans" sz="1400"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1239,6 +1249,1387 @@
             <a:t>，将群主分配好的分区发送给每个消费者</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="矩形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{909F30F3-E9A9-C44C-BE9C-57287B7537DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="927100" y="876300"/>
+          <a:ext cx="15443200" cy="11493500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-Hans" altLang="en-US" sz="1100"/>
+            <a:t>  </a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="文本框 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D6A643B-DCC4-9844-A133-DF78B2644475}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1854200" y="4889500"/>
+          <a:ext cx="1689100" cy="1244600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-Hans" sz="1600"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-Hans" altLang="en-US" sz="1600"/>
+            <a:t>消费者提交偏移量</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="左大括号 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F34BF20-D0BE-A641-8A14-CDB7309008B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3556000" y="1511300"/>
+          <a:ext cx="1016000" cy="8204200"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBrace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="文本框 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68141B04-0FB4-DE4D-8E0F-781CBE292F22}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4686300" y="1384300"/>
+          <a:ext cx="3695700" cy="330200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-Hans" altLang="en-US" sz="1600" b="1"/>
+            <a:t>自动提交</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-Hans" altLang="en-US" sz="1400" b="1"/>
+            <a:t>：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-Hans" sz="1400"/>
+            <a:t>auto.commit.interval.ms=5s</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="文本框 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3989B3DA-6854-2446-A242-018BFA82C4C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4686300" y="2832100"/>
+          <a:ext cx="1143000" cy="825500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-Hans" sz="1600"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-Hans" altLang="en-US" sz="1600" b="1"/>
+            <a:t>手动提交</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="左大括号 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17A6B2A7-826A-0F42-9B21-E4409C71E656}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5854700" y="2184400"/>
+          <a:ext cx="482600" cy="2209800"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBrace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="文本框 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8C3B964-1595-1949-9C68-1DC2BDFC9EC0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6400800" y="2311400"/>
+          <a:ext cx="4787900" cy="876300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-Hans" altLang="en-US" sz="1400"/>
+            <a:t>同步提交</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-Hans" sz="1400"/>
+            <a:t>:consumer.commitSync(),</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-Hans" altLang="en-US" sz="1400"/>
+            <a:t>提交当前批次最新的偏移量，会发生阻塞，</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-Hans" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-Hans" altLang="en-US" sz="1400"/>
+            <a:t>只要不发生不可恢复的错误，它会一直尝试直至提交成功；</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="文本框 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0C840ED-A399-024E-9BA5-683F4C0B94C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6477000" y="3771900"/>
+          <a:ext cx="4724400" cy="584200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-Hans" altLang="en-US" sz="1400"/>
+            <a:t>异步提交：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-Hans" sz="1400"/>
+            <a:t>consumer.commit</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-Hans" sz="1400" baseline="0"/>
+            <a:t>Async();</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-Hans" altLang="en-US" sz="1400" baseline="0"/>
+            <a:t>不会发生阻塞，失败也不会重试，</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="文本框 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62C879F3-DE90-8343-839E-3175B357A7E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4724400" y="5067300"/>
+          <a:ext cx="6451600" cy="774700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-Hans" altLang="en-US" sz="1600" b="1"/>
+            <a:t>提交指定的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-Hans" sz="1600" b="1"/>
+            <a:t>offset</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-Hans" sz="1400"/>
+            <a:t>:consumer.commitAsync(Map&lt;TopicPatiton,OffsetAndMetadata&gt;)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-Hans" sz="1400"/>
+            <a:t>,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-Hans" altLang="en-US" sz="1400"/>
+            <a:t>或者使用</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-Hans" sz="1400"/>
+            <a:t>commitSync(Map&lt;TopicPatiton,OffsetAndMetadata)</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="文本框 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65487998-5CE9-0947-B907-A51F615EC056}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4724400" y="6680200"/>
+          <a:ext cx="2844800" cy="838200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-Hans" altLang="en-US" sz="1600" b="1"/>
+            <a:t>再均衡监听器</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-Hans" sz="1600" b="1"/>
+            <a:t>:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-Hans" altLang="en-US" sz="1600" b="1"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-Hans" sz="1600" b="1"/>
+            <a:t>ConsumerRebalanceListener</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="左大括号 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A185B1A6-4D53-EC43-B725-2969B68217C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7581900" y="6172200"/>
+          <a:ext cx="647700" cy="1816100"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBrace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="文本框 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F0F9166-21D6-034E-B929-E8B6BD6AEACF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8255000" y="6184900"/>
+          <a:ext cx="4178300" cy="660400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-Hans" sz="1400"/>
+            <a:t>onPartitionsRevoked</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-Hans" altLang="en-US" sz="1400"/>
+            <a:t>：在再均衡开始之前和消费者停止读取消息之后被调用</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="文本框 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE6D54E1-EFB6-C74D-91B4-0DD51FEBDCED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8293100" y="7416800"/>
+          <a:ext cx="4152900" cy="635000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-Hans" sz="1400"/>
+            <a:t>onPartitionsAssigned:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-Hans" altLang="en-US" sz="1400"/>
+            <a:t>在重新分配分区之后和消费者开始读取消息之前被调用</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="文本框 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{129CF1FD-C770-5F43-B49A-0BED2E8D1929}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4648200" y="9398000"/>
+          <a:ext cx="1981200" cy="673100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-Hans" altLang="en-US" sz="1600" b="1"/>
+            <a:t>从特定偏移量开始处理记录</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-Hans" sz="1600" b="1"/>
+            <a:t>:</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="左大括号 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B7D27DA-5779-1845-BCD7-A09D15A5DC9D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6578600" y="8636000"/>
+          <a:ext cx="647700" cy="2298700"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBrace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="文本框 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDE496CD-DF29-3247-8C59-3432C511875A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7239000" y="8496300"/>
+          <a:ext cx="5791200" cy="355600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-Hans" altLang="en-US" sz="1400"/>
+            <a:t>从开始位置读取消息</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-Hans" sz="1400"/>
+            <a:t>:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-Hans" altLang="en-US" sz="1400"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-Hans" sz="1400"/>
+            <a:t>seekToBeginning</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-Hans" altLang="en-US" sz="1400" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-Hans" sz="1400" baseline="0"/>
+            <a:t>(Collection&lt;TopicPartition&gt;,tp)</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="文本框 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EE937DE-6881-3B41-9E3E-036A346ED197}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7239000" y="9474200"/>
+          <a:ext cx="5791200" cy="355600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-Hans" altLang="en-US" sz="1400"/>
+            <a:t>从结束位置读取消息</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-Hans" sz="1400"/>
+            <a:t>:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-Hans" altLang="en-US" sz="1400"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-Hans" sz="1400"/>
+            <a:t>seekToEnd</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-Hans" sz="1400" baseline="0"/>
+            <a:t>(Collection&lt;TopicPartition&gt;,tp)</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>736600</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="文本框 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5131A854-43C2-B043-BACA-FE73FBF33B3D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7200900" y="10528300"/>
+          <a:ext cx="5918200" cy="647700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-Hans" altLang="en-US" sz="1400"/>
+            <a:t>将</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-Hans" sz="1400"/>
+            <a:t>offset</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-Hans" altLang="en-US" sz="1400"/>
+            <a:t>和记录都存放在数据库中，保证了消费记录和提交的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-Hans" sz="1400"/>
+            <a:t>offset</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-Hans" altLang="en-US" sz="1400"/>
+            <a:t>一致，从而避免重复消费和漏消费，然后使用</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-Hans" sz="1400"/>
+            <a:t>seek(partition,offset)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-Hans" altLang="en-US" sz="1400"/>
+            <a:t>方法提交</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-Hans" sz="1400"/>
+            <a:t>offset</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-Hans" altLang="en-US" sz="1400"/>
+            <a:t>；</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1546,8 +2937,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAE2C547-6DB7-6049-B056-95EEEEEEB71E}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14642CEC-9E13-E842-94FE-A1FB587BD9B0}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/kafka学习笔记图.xlsx
+++ b/kafka学习笔记图.xlsx
@@ -13,7 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="消费者分配分区" sheetId="1" r:id="rId1"/>
-    <sheet name="提交offset" sheetId="2" r:id="rId2"/>
+    <sheet name="消费者提交offset" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -2953,8 +2953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14642CEC-9E13-E842-94FE-A1FB587BD9B0}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="W22" sqref="W22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
